--- a/Documents/Orga_Wochenplan_KW27.xlsx
+++ b/Documents/Orga_Wochenplan_KW27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EBCBAF-74E4-4322-A426-CE2FF9CA77A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84007EA3-4874-4857-98E9-DA7F0673E908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="3660" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -428,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -571,14 +571,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -591,18 +583,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -691,6 +671,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1038,7 +1026,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:O46"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,66 +1040,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="63"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="58"/>
     </row>
     <row r="2" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="66"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="61"/>
     </row>
     <row r="3" spans="1:18" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="69"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1134,34 +1122,36 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="71">
+      <c r="I5" s="66">
         <v>27</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="70" t="s">
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="67">
+        <v>44383</v>
+      </c>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
     </row>
     <row r="6" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1179,11 +1169,11 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="60" t="s">
+      <c r="P6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
     </row>
     <row r="7" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -1224,11 +1214,11 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="53">
+      <c r="O8" s="50"/>
+      <c r="P8" s="48">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="54"/>
+      <c r="Q8" s="49"/>
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1248,11 +1238,11 @@
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="47">
+      <c r="O9" s="53"/>
+      <c r="P9" s="45">
         <v>0.75</v>
       </c>
-      <c r="Q9" s="48"/>
+      <c r="Q9" s="46"/>
       <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1272,11 +1262,11 @@
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="53">
+      <c r="O10" s="50"/>
+      <c r="P10" s="48">
         <v>0.75</v>
       </c>
-      <c r="Q10" s="54"/>
+      <c r="Q10" s="49"/>
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1296,11 +1286,11 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="47">
+      <c r="O11" s="53"/>
+      <c r="P11" s="45">
         <v>1</v>
       </c>
-      <c r="Q11" s="48"/>
+      <c r="Q11" s="46"/>
       <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1320,11 +1310,11 @@
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="73">
+      <c r="O12" s="50"/>
+      <c r="P12" s="68">
         <v>2.25</v>
       </c>
-      <c r="Q12" s="74"/>
+      <c r="Q12" s="69"/>
       <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1345,10 +1335,10 @@
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
-      <c r="P13" s="47">
+      <c r="P13" s="45">
         <v>0.25</v>
       </c>
-      <c r="Q13" s="56"/>
+      <c r="Q13" s="51"/>
       <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1366,9 +1356,9 @@
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="49"/>
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,8 +1377,8 @@
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="57"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="52"/>
       <c r="R15" s="10"/>
     </row>
     <row r="16" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1431,10 +1421,10 @@
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
-      <c r="P17" s="53">
+      <c r="P17" s="48">
         <v>0.5</v>
       </c>
-      <c r="Q17" s="54"/>
+      <c r="Q17" s="49"/>
       <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,10 +1445,10 @@
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="75">
+      <c r="P18" s="70">
         <v>1</v>
       </c>
-      <c r="Q18" s="76"/>
+      <c r="Q18" s="71"/>
       <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1479,10 +1469,10 @@
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
       <c r="O19" s="26"/>
-      <c r="P19" s="53">
+      <c r="P19" s="48">
         <v>0.25</v>
       </c>
-      <c r="Q19" s="54"/>
+      <c r="Q19" s="49"/>
       <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1503,10 +1493,10 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="47">
+      <c r="P20" s="45">
         <v>2.5</v>
       </c>
-      <c r="Q20" s="48"/>
+      <c r="Q20" s="46"/>
       <c r="R20" s="8"/>
     </row>
     <row r="21" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1527,10 +1517,10 @@
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
-      <c r="P21" s="73">
+      <c r="P21" s="68">
         <v>2.5</v>
       </c>
-      <c r="Q21" s="74"/>
+      <c r="Q21" s="69"/>
       <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1551,10 +1541,10 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="47">
+      <c r="P22" s="45">
         <v>0.25</v>
       </c>
-      <c r="Q22" s="48"/>
+      <c r="Q22" s="46"/>
       <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1573,8 +1563,8 @@
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="74"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="69"/>
       <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1593,8 +1583,8 @@
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
       <c r="O24" s="30"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="78"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="73"/>
       <c r="R24" s="10"/>
     </row>
     <row r="25" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1637,10 +1627,10 @@
       <c r="M26" s="26"/>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
-      <c r="P26" s="53">
+      <c r="P26" s="48">
         <v>4</v>
       </c>
-      <c r="Q26" s="54"/>
+      <c r="Q26" s="49"/>
       <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1661,10 +1651,10 @@
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
-      <c r="P27" s="75">
+      <c r="P27" s="70">
         <v>2.75</v>
       </c>
-      <c r="Q27" s="76"/>
+      <c r="Q27" s="71"/>
       <c r="R27" s="11"/>
     </row>
     <row r="28" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1685,10 +1675,10 @@
       <c r="M28" s="26"/>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
-      <c r="P28" s="53">
+      <c r="P28" s="48">
         <v>0.25</v>
       </c>
-      <c r="Q28" s="54"/>
+      <c r="Q28" s="49"/>
       <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1707,8 +1697,8 @@
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="76"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="71"/>
       <c r="R29" s="8"/>
     </row>
     <row r="30" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1727,8 +1717,8 @@
       <c r="M30" s="26"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="54"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="49"/>
       <c r="R30" s="9"/>
     </row>
     <row r="31" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1747,8 +1737,8 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="76"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="71"/>
       <c r="R31" s="8"/>
     </row>
     <row r="32" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1767,8 +1757,8 @@
       <c r="M32" s="26"/>
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="54"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="49"/>
       <c r="R32" s="9"/>
     </row>
     <row r="33" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1787,8 +1777,8 @@
       <c r="M33" s="30"/>
       <c r="N33" s="30"/>
       <c r="O33" s="30"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="76"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="71"/>
       <c r="R33" s="10"/>
     </row>
     <row r="34" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2370,7 +2360,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:O18"/>
+      <selection activeCell="A20" sqref="A20:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,66 +2374,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="63"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="58"/>
     </row>
     <row r="2" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="66"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="61"/>
     </row>
     <row r="3" spans="1:18" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="69"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -2466,34 +2456,34 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="71">
+      <c r="I5" s="66">
         <v>27</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="70" t="s">
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="70"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
     </row>
     <row r="6" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -2511,11 +2501,11 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="60" t="s">
+      <c r="P6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
     </row>
     <row r="7" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -2556,11 +2546,11 @@
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="53">
+      <c r="O8" s="50"/>
+      <c r="P8" s="48">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="59"/>
+      <c r="Q8" s="54"/>
       <c r="R8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2582,11 +2572,11 @@
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="47">
+      <c r="O9" s="53"/>
+      <c r="P9" s="45">
         <v>0.75</v>
       </c>
-      <c r="Q9" s="56"/>
+      <c r="Q9" s="51"/>
       <c r="R9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2608,11 +2598,11 @@
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="53">
+      <c r="O10" s="50"/>
+      <c r="P10" s="48">
         <v>0.75</v>
       </c>
-      <c r="Q10" s="59"/>
+      <c r="Q10" s="54"/>
       <c r="R10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2634,11 +2624,11 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="47">
+      <c r="O11" s="53"/>
+      <c r="P11" s="45">
         <v>1</v>
       </c>
-      <c r="Q11" s="56"/>
+      <c r="Q11" s="51"/>
       <c r="R11" s="8" t="s">
         <v>14</v>
       </c>
@@ -2660,11 +2650,11 @@
       <c r="L12" s="26"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="73">
+      <c r="O12" s="50"/>
+      <c r="P12" s="68">
         <v>2.15</v>
       </c>
-      <c r="Q12" s="74"/>
+      <c r="Q12" s="69"/>
       <c r="R12" s="14" t="s">
         <v>14</v>
       </c>
@@ -2687,10 +2677,10 @@
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
-      <c r="P13" s="47">
+      <c r="P13" s="45">
         <v>0.25</v>
       </c>
-      <c r="Q13" s="56"/>
+      <c r="Q13" s="51"/>
       <c r="R13" s="8" t="s">
         <v>14</v>
       </c>
@@ -2710,9 +2700,9 @@
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="49"/>
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2731,8 +2721,8 @@
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="57"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="52"/>
       <c r="R15" s="10"/>
     </row>
     <row r="16" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,16 +2765,18 @@
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
-      <c r="P17" s="53">
+      <c r="P17" s="48">
         <v>0.25</v>
       </c>
-      <c r="Q17" s="54"/>
+      <c r="Q17" s="49"/>
       <c r="R17" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -2799,12 +2791,18 @@
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="11"/>
+      <c r="P18" s="70">
+        <v>0.75</v>
+      </c>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="74" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="25" t="s">
+        <v>20</v>
+      </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -2819,9 +2817,13 @@
       <c r="M19" s="26"/>
       <c r="N19" s="26"/>
       <c r="O19" s="26"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="7"/>
+      <c r="P19" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
@@ -2839,8 +2841,8 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="46"/>
       <c r="R20" s="8"/>
     </row>
     <row r="21" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2859,9 +2861,9 @@
       <c r="M21" s="26"/>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="9"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="14"/>
     </row>
     <row r="22" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
@@ -2879,8 +2881,8 @@
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="48"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="46"/>
       <c r="R22" s="8"/>
     </row>
     <row r="23" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2899,9 +2901,9 @@
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="9"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="14"/>
     </row>
     <row r="24" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
@@ -2919,9 +2921,9 @@
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
       <c r="O24" s="30"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="10"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="75"/>
     </row>
     <row r="25" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
@@ -3389,7 +3391,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="23">
         <f>SUM(P7:R46)</f>
-        <v>6.65</v>
+        <v>7.65</v>
       </c>
       <c r="Q47" s="23"/>
       <c r="R47" s="24"/>

--- a/Documents/Orga_Wochenplan_KW27.xlsx
+++ b/Documents/Orga_Wochenplan_KW27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jellef\Documents\GitHub\schoolProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84007EA3-4874-4857-98E9-DA7F0673E908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB522581-FB12-4873-BAEA-9192ED6FF4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="3660" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>Wochenplan</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Projektabschnitt 2: Planung Projektphase 2 und Planung Datenbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektplanung: Gantt-Diagramm </t>
   </si>
 </sst>
 </file>
@@ -2360,7 +2363,7 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView showWhiteSpace="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:O20"/>
+      <selection activeCell="A21" sqref="A21:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2826,7 +2829,9 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -2841,9 +2846,13 @@
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
-      <c r="P20" s="45"/>
+      <c r="P20" s="45">
+        <v>1.25</v>
+      </c>
       <c r="Q20" s="46"/>
-      <c r="R20" s="8"/>
+      <c r="R20" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25"/>
@@ -3391,7 +3400,7 @@
       <c r="O47" s="6"/>
       <c r="P47" s="23">
         <f>SUM(P7:R46)</f>
-        <v>7.65</v>
+        <v>8.9</v>
       </c>
       <c r="Q47" s="23"/>
       <c r="R47" s="24"/>
